--- a/template/2023/metadata.xlsx
+++ b/template/2023/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\kcda-blanko-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\kcda-blanko-generator\template\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D4DC69-63CE-4769-9641-98FC3E88C270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBDE66E-4991-4740-84C2-575869123168}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$2:$J$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$H$137</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="167">
   <si>
     <t>004 LONGGOSIPI</t>
   </si>
@@ -526,6 +528,9 @@
   </si>
   <si>
     <t>Ima (0822-9234-2902)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                     </t>
   </si>
 </sst>
 </file>
@@ -899,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1312,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" t="str">
@@ -4200,6 +4207,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J2" xr:uid="{54279787-9C15-4992-A196-267424352EE9}"/>
   <mergeCells count="37">
     <mergeCell ref="F3:F16"/>
     <mergeCell ref="G3:G16"/>
@@ -4241,6 +4249,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>